--- a/Project-1 (Depreciation-Calculator-Excel)- Sachin Gunjal.xlsx
+++ b/Project-1 (Depreciation-Calculator-Excel)- Sachin Gunjal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Science\Projects\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Git Repo\New folder\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5590BA2-8A28-4FBF-8499-8C52B700DA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B594521-3ADA-40F5-B62B-B157CE280A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="2" r:id="rId1"/>
@@ -462,7 +462,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,8 +488,52 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,56 +550,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1213,7 +1212,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2977,193 +2976,6 @@
               <a:srgbClr val="7030A0"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1533525" y="1390650"/>
-          <a:ext cx="14754225" cy="5619750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Point</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>s to remember before starting this project:-</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Purpose of the project is to give you the fundamental ideas about how Depreciation methods  and terminologies works in Excel so imp thing is to go thorough this documentation very carefully and understand the tems.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1. In Project Worksheets you dataset is already prepared  so you have to find the values and answers for given functions for solution please go through this sheet </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2. Kindly read all the documentation attached to this project file very carefully because all the important points for making this projects is given there in this documentation</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3. After doing the anlalysis Create a Summary report that what insights and analysis you have find while doing this projects</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3623,7 +3435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
@@ -3641,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -3669,20 +3481,20 @@
     </row>
     <row r="2" spans="1:6" ht="37.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3694,42 +3506,42 @@
     </row>
     <row r="5" spans="1:6" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25">
+      <c r="C6" s="23"/>
+      <c r="D6" s="13">
         <v>450000</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25">
+      <c r="C7" s="23"/>
+      <c r="D7" s="13">
         <v>50000</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26">
+      <c r="C8" s="23"/>
+      <c r="D8" s="14">
         <f>D6+D7</f>
         <v>500000</v>
       </c>
@@ -3737,33 +3549,33 @@
     </row>
     <row r="9" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25">
+      <c r="C9" s="23"/>
+      <c r="D9" s="13">
         <v>50000</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="27">
+      <c r="C10" s="23"/>
+      <c r="D10" s="15">
         <v>10</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="26">
+      <c r="C11" s="25"/>
+      <c r="D11" s="14">
         <f>IF(D8="", "", SLN($D$8,$D$9,$D$10))</f>
         <v>45000</v>
       </c>
@@ -3772,11 +3584,11 @@
     </row>
     <row r="12" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29">
+      <c r="C12" s="25"/>
+      <c r="D12" s="16">
         <f>IFERROR(D11/D8,"")</f>
         <v>0.09</v>
       </c>
@@ -3785,11 +3597,11 @@
     </row>
     <row r="13" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="30">
+      <c r="C13" s="23"/>
+      <c r="D13" s="17">
         <f>IF(D8="", "", D11*D10)</f>
         <v>450000</v>
       </c>
@@ -3797,11 +3609,11 @@
     </row>
     <row r="14" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="30">
+      <c r="C14" s="23"/>
+      <c r="D14" s="17">
         <f>IF(D8="", "", D8-D13)</f>
         <v>50000</v>
       </c>
@@ -3809,11 +3621,11 @@
     </row>
     <row r="15" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="30">
+      <c r="C15" s="23"/>
+      <c r="D15" s="17">
         <f>IF(D8="", "", D9-D14)</f>
         <v>0</v>
       </c>
@@ -3821,49 +3633,49 @@
     </row>
     <row r="16" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="25">
+      <c r="C18" s="25"/>
+      <c r="D18" s="13">
         <v>450000</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="25">
+      <c r="C19" s="25"/>
+      <c r="D19" s="13">
         <v>50000</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="26">
+      <c r="C20" s="25"/>
+      <c r="D20" s="14">
         <f>D18+D19</f>
         <v>500000</v>
       </c>
@@ -3871,33 +3683,33 @@
     </row>
     <row r="21" spans="1:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="25">
+      <c r="C21" s="25"/>
+      <c r="D21" s="13">
         <v>50000</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27">
+      <c r="C22" s="25"/>
+      <c r="D22" s="15">
         <v>10</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="29">
+      <c r="C23" s="31"/>
+      <c r="D23" s="16">
         <f>IF(D20="","",1-(D21/D20)^(1/D22))</f>
         <v>0.20567176527571851</v>
       </c>
@@ -3905,17 +3717,17 @@
     </row>
     <row r="24" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="6"/>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
@@ -3982,11 +3794,11 @@
         <v>2</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" ref="H27:H38" si="0">IFERROR(IF(I27&gt;$D$9, ($I$26*$D$12), ""),"")</f>
+        <f t="shared" ref="H27:H36" si="0">IFERROR(IF(I27&gt;$D$9, ($I$26*$D$12), ""),"")</f>
         <v>45000</v>
       </c>
       <c r="I27" s="5">
-        <f>IFERROR(I26-H26, "")</f>
+        <f t="shared" ref="I27:I36" si="1">IFERROR(I26-H26, "")</f>
         <v>455000</v>
       </c>
     </row>
@@ -3996,11 +3808,11 @@
         <v>3</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C27:C45" si="1">IFERROR(IF(D28&gt;$D$21, (D28*$D$23), ""),"")</f>
+        <f t="shared" ref="C28:C45" si="2">IFERROR(IF(D28&gt;$D$21, (D28*$D$23), ""),"")</f>
         <v>64885.05542646048</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" ref="D28:D45" si="2">IFERROR(D27-C27, "")</f>
+        <f t="shared" ref="D28:D45" si="3">IFERROR(D27-C27, "")</f>
         <v>315478.67224009661</v>
       </c>
       <c r="E28" s="6"/>
@@ -4012,7 +3824,7 @@
         <v>45000</v>
       </c>
       <c r="I28" s="5">
-        <f>IFERROR(I27-H27, "")</f>
+        <f t="shared" si="1"/>
         <v>410000</v>
       </c>
     </row>
@@ -4022,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51540.031536887516</v>
       </c>
       <c r="D29" s="5">
@@ -4038,7 +3850,7 @@
         <v>45000</v>
       </c>
       <c r="I29" s="5">
-        <f>IFERROR(I28-H28, "")</f>
+        <f t="shared" si="1"/>
         <v>365000</v>
       </c>
     </row>
@@ -4048,11 +3860,11 @@
         <v>5</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40939.70226832966</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>199053.58527674861</v>
       </c>
       <c r="E30" s="6"/>
@@ -4064,7 +3876,7 @@
         <v>45000</v>
       </c>
       <c r="I30" s="5">
-        <f>IFERROR(I29-H29, "")</f>
+        <f t="shared" si="1"/>
         <v>320000</v>
       </c>
     </row>
@@ -4074,11 +3886,11 @@
         <v>6</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32519.561432939961</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>158113.88300841895</v>
       </c>
       <c r="E31" s="6"/>
@@ -4090,7 +3902,7 @@
         <v>45000</v>
       </c>
       <c r="I31" s="5">
-        <f>IFERROR(I30-H30, "")</f>
+        <f t="shared" si="1"/>
         <v>275000</v>
       </c>
     </row>
@@ -4100,11 +3912,11 @@
         <v>7</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25831.205827035024</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125594.321575479</v>
       </c>
       <c r="E32" s="6"/>
@@ -4116,7 +3928,7 @@
         <v>45000</v>
       </c>
       <c r="I32" s="5">
-        <f>IFERROR(I31-H31, "")</f>
+        <f t="shared" si="1"/>
         <v>230000</v>
       </c>
     </row>
@@ -4126,11 +3938,11 @@
         <v>8</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20518.456125388308</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99763.115748443975</v>
       </c>
       <c r="E33" s="6"/>
@@ -4142,7 +3954,7 @@
         <v>45000</v>
       </c>
       <c r="I33" s="5">
-        <f>IFERROR(I32-H32, "")</f>
+        <f t="shared" si="1"/>
         <v>185000</v>
       </c>
     </row>
@@ -4152,11 +3964,11 @@
         <v>9</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16298.389033347312</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79244.659623055661</v>
       </c>
       <c r="E34" s="6"/>
@@ -4168,7 +3980,7 @@
         <v>45000</v>
       </c>
       <c r="I34" s="5">
-        <f>IFERROR(I33-H33, "")</f>
+        <f t="shared" si="1"/>
         <v>140000</v>
       </c>
     </row>
@@ -4178,11 +3990,11 @@
         <v>10</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12946.27058970836</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62946.270589708351</v>
       </c>
       <c r="E35" s="6"/>
@@ -4194,7 +4006,7 @@
         <v>45000</v>
       </c>
       <c r="I35" s="5">
-        <f>IFERROR(I34-H34, "")</f>
+        <f t="shared" si="1"/>
         <v>95000</v>
       </c>
     </row>
@@ -4204,7 +4016,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D36" s="5">
@@ -4220,7 +4032,7 @@
         <v/>
       </c>
       <c r="I36" s="5">
-        <f>IFERROR(I35-H35, "")</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
@@ -4228,11 +4040,11 @@
       <c r="A37" s="6"/>
       <c r="B37" s="2"/>
       <c r="C37" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D37" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E37" s="6"/>
@@ -4250,7 +4062,7 @@
         <v>450000</v>
       </c>
       <c r="D38" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E38" s="6"/>
@@ -4267,11 +4079,11 @@
       <c r="A39" s="6"/>
       <c r="B39" s="2"/>
       <c r="C39" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D39" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E39" s="6"/>
@@ -4280,11 +4092,11 @@
       <c r="A40" s="6"/>
       <c r="B40" s="2"/>
       <c r="C40" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D40" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E40" s="6"/>
@@ -4293,11 +4105,11 @@
       <c r="A41" s="6"/>
       <c r="B41" s="2"/>
       <c r="C41" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D41" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E41" s="6"/>
@@ -4306,11 +4118,11 @@
       <c r="A42" s="6"/>
       <c r="B42" s="2"/>
       <c r="C42" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D42" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E42" s="6"/>
@@ -4319,11 +4131,11 @@
       <c r="A43" s="6"/>
       <c r="B43" s="2"/>
       <c r="C43" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D43" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E43" s="6"/>
@@ -4332,11 +4144,11 @@
       <c r="A44" s="6"/>
       <c r="B44" s="2"/>
       <c r="C44" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D44" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E44" s="6"/>
@@ -4345,11 +4157,11 @@
       <c r="A45" s="6"/>
       <c r="B45" s="2"/>
       <c r="C45" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D45" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E45" s="6"/>
@@ -4363,6 +4175,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -4372,12 +4191,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B12:C12"/>
@@ -4385,7 +4198,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4399,7 +4211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A3640-95FB-44A6-AEBE-91057E7710BE}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4411,10 +4223,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
@@ -4425,7 +4237,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -4440,13 +4252,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D4">
@@ -4455,13 +4267,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D5">
@@ -4470,7 +4282,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -4479,19 +4291,19 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="12">
         <f>1-POWER('Depreciation Calculator'!D21/'Depreciation Calculator'!D20,1/'Depreciation Calculator'!D22)</f>
         <v>0.20567176527571851</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D7">
@@ -4500,13 +4312,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8">
@@ -4515,13 +4327,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D9">
@@ -4530,7 +4342,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -4542,15 +4354,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
       <c r="B12" t="s">
